--- a/data/Base de données anti trans.xlsx
+++ b/data/Base de données anti trans.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="500">
   <si>
     <t>ID ASSO</t>
   </si>
@@ -6820,9 +6820,6 @@
     <t>Protection de l'enfance, gender critical</t>
   </si>
   <si>
-    <t>ED,FE</t>
-  </si>
-  <si>
     <t>Le site est vieux : compliqué de savoir ce qui parle de trans</t>
   </si>
   <si>
@@ -6883,9 +6880,6 @@
     <t>Sciences, gender critical</t>
   </si>
   <si>
-    <t>PS,FE</t>
-  </si>
-  <si>
     <t>Note : Pleins de sites sont référencés dedans qui pourraient nous servir</t>
   </si>
   <si>
@@ -6904,9 +6898,6 @@
     <t>Sciences, protection de l'enfance, gender critical</t>
   </si>
   <si>
-    <t>PS,ED,FE</t>
-  </si>
-  <si>
     <t>A récup juste pdf</t>
   </si>
   <si>
@@ -6971,9 +6962,6 @@
   </si>
   <si>
     <t>https://www.civitas-institut.com/</t>
-  </si>
-  <si>
-    <t>XD, CT</t>
   </si>
 </sst>
 </file>
@@ -7007,8 +6995,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -7071,7 +7059,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -7088,8 +7076,14 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -7097,10 +7091,7 @@
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -7110,7 +7101,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -7119,7 +7110,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -7435,15 +7426,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="39.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="39.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -7476,7 +7467,7 @@
       <c r="B2" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>401</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -7497,7 +7488,7 @@
       <c r="B3" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>405</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -7518,7 +7509,7 @@
       <c r="B4" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>409</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -7528,11 +7519,11 @@
         <v>407</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="18" t="s">
         <v>411</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="17"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="3">
@@ -7541,7 +7532,7 @@
       <c r="B5" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>413</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -7554,23 +7545,23 @@
       <c r="G5" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="H5" s="5"/>
+      <c r="H5" s="6"/>
       <c r="I5" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>416</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="19" t="s">
         <v>417</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="18" t="s">
         <v>418</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="18" t="s">
         <v>407</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -7579,7 +7570,7 @@
       <c r="G6" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="6"/>
       <c r="I6" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
@@ -7589,7 +7580,7 @@
       <c r="B7" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="15" t="s">
         <v>422</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -7602,7 +7593,7 @@
       <c r="G7" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="H7" s="5"/>
+      <c r="H7" s="6"/>
       <c r="I7" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
@@ -7612,7 +7603,7 @@
       <c r="B8" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="15" t="s">
         <v>425</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -7625,7 +7616,7 @@
       <c r="G8" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
@@ -7635,7 +7626,7 @@
       <c r="B9" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="15" t="s">
         <v>428</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -7648,7 +7639,7 @@
       <c r="G9" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="H9" s="5"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
@@ -7658,7 +7649,7 @@
       <c r="B10" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="15" t="s">
         <v>432</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -7679,7 +7670,7 @@
       <c r="B11" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="15" t="s">
         <v>434</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -7697,22 +7688,22 @@
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="18" t="s">
         <v>437</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="19" t="s">
         <v>438</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="18" t="s">
         <v>439</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="18" t="s">
         <v>440</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="G12" s="5"/>
+      <c r="G12" s="6"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
@@ -7720,16 +7711,16 @@
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="18" t="s">
         <v>442</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="19" t="s">
         <v>443</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="18" t="s">
         <v>444</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="18" t="s">
         <v>436</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -7743,22 +7734,22 @@
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="18" t="s">
         <v>446</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="19" t="s">
         <v>447</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="18" t="s">
         <v>444</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="18" t="s">
         <v>436</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="G14" s="5"/>
+      <c r="G14" s="6"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
@@ -7769,21 +7760,21 @@
       <c r="B15" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="15" t="s">
         <v>450</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>451</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>454</v>
       </c>
       <c r="I15" s="2"/>
     </row>
@@ -7792,13 +7783,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>455</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="D16" s="2" t="s">
         <v>456</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>457</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>403</v>
@@ -7813,38 +7804,38 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>458</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="D17" s="2" t="s">
         <v>459</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>460</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>403</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="H17" s="5"/>
+        <v>460</v>
+      </c>
+      <c r="H17" s="6"/>
       <c r="I17" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="18" t="s">
+        <v>461</v>
+      </c>
+      <c r="C18" s="19" t="s">
         <v>462</v>
       </c>
-      <c r="C18" s="18" t="s">
-        <v>463</v>
-      </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="18" t="s">
         <v>444</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="18" t="s">
         <v>436</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -7858,17 +7849,17 @@
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="18" t="s">
+        <v>463</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="D19" s="18" t="s">
         <v>465</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="E19" s="18" t="s">
         <v>466</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>467</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>441</v>
@@ -7882,10 +7873,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>468</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>469</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>444</v>
@@ -7902,47 +7893,47 @@
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="18" t="s">
+        <v>469</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="D21" s="18" t="s">
         <v>471</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>472</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>473</v>
+      <c r="E21" s="18" t="s">
+        <v>436</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>445</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="H21" s="5"/>
+        <v>472</v>
+      </c>
+      <c r="H21" s="6"/>
       <c r="I21" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="17" t="s">
-        <v>475</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>476</v>
-      </c>
-      <c r="D22" s="17" t="s">
+      <c r="B22" s="18" t="s">
+        <v>473</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="D22" s="18" t="s">
         <v>444</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="18" t="s">
         <v>436</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="6"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
@@ -7951,39 +7942,39 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="C23" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>479</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>480</v>
+        <v>440</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="H23" s="5"/>
+        <v>478</v>
+      </c>
+      <c r="H23" s="6"/>
       <c r="I23" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="17" t="s">
-        <v>482</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>483</v>
-      </c>
-      <c r="D24" s="17" t="s">
+      <c r="B24" s="18" t="s">
         <v>479</v>
       </c>
+      <c r="C24" s="19" t="s">
+        <v>480</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>477</v>
+      </c>
       <c r="E24" s="2" t="s">
-        <v>480</v>
+        <v>440</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>445</v>
@@ -7997,10 +7988,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>485</v>
+        <v>481</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>482</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>414</v>
@@ -8018,13 +8009,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>487</v>
+        <v>483</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>484</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>407</v>
@@ -8039,13 +8030,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>490</v>
+        <v>486</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>487</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>407</v>
@@ -8060,13 +8051,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>493</v>
+        <v>489</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>407</v>
@@ -8081,13 +8072,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>495</v>
+        <v>491</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>492</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>407</v>
@@ -8102,13 +8093,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>497</v>
+        <v>493</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>494</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>407</v>
@@ -8122,16 +8113,16 @@
       <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="17" t="s">
-        <v>499</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>500</v>
-      </c>
-      <c r="D31" s="17" t="s">
+      <c r="B31" s="18" t="s">
+        <v>496</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>497</v>
+      </c>
+      <c r="D31" s="18" t="s">
         <v>414</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="E31" s="18" t="s">
         <v>407</v>
       </c>
       <c r="F31" s="2"/>
@@ -8143,17 +8134,17 @@
       <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="17" t="s">
-        <v>501</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>502</v>
-      </c>
-      <c r="D32" s="17" t="s">
+      <c r="B32" s="18" t="s">
+        <v>498</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>499</v>
+      </c>
+      <c r="D32" s="18" t="s">
         <v>406</v>
       </c>
-      <c r="E32" s="17" t="s">
-        <v>503</v>
+      <c r="E32" s="18" t="s">
+        <v>403</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -9594,11 +9585,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -9622,7 +9613,7 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>326</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -9639,7 +9630,7 @@
       <c r="A3" s="3">
         <v>3</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="15" t="s">
         <v>328</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -9656,7 +9647,7 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="15" t="s">
         <v>330</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -9673,7 +9664,7 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>332</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -9690,7 +9681,7 @@
       <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>334</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -9707,7 +9698,7 @@
       <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="15" t="s">
         <v>336</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -9724,7 +9715,7 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="15" t="s">
         <v>338</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -9741,7 +9732,7 @@
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="15" t="s">
         <v>340</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -9758,7 +9749,7 @@
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="15" t="s">
         <v>343</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -9775,7 +9766,7 @@
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="15" t="s">
         <v>345</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -9792,7 +9783,7 @@
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="15" t="s">
         <v>347</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -9809,7 +9800,7 @@
       <c r="A13" s="3">
         <v>16</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="15" t="s">
         <v>349</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -9826,7 +9817,7 @@
       <c r="A14" s="3">
         <v>10</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="15" t="s">
         <v>351</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -9843,7 +9834,7 @@
       <c r="A15" s="3">
         <v>19</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="15" t="s">
         <v>353</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -9860,7 +9851,7 @@
       <c r="A16" s="3">
         <v>20</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="15" t="s">
         <v>355</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -9877,7 +9868,7 @@
       <c r="A17" s="3">
         <v>24</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="15" t="s">
         <v>357</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -9894,7 +9885,7 @@
       <c r="A18" s="3">
         <v>24</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="15" t="s">
         <v>359</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -9911,7 +9902,7 @@
       <c r="A19" s="3">
         <v>24</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="15" t="s">
         <v>361</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -9928,7 +9919,7 @@
       <c r="A20" s="3">
         <v>25</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="15" t="s">
         <v>363</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -9945,7 +9936,7 @@
       <c r="A21" s="3">
         <v>26</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="15" t="s">
         <v>365</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -9962,7 +9953,7 @@
       <c r="A22" s="3">
         <v>27</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="15" t="s">
         <v>367</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -9979,7 +9970,7 @@
       <c r="A23" s="3">
         <v>28</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="15" t="s">
         <v>369</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -9996,7 +9987,7 @@
       <c r="A24" s="3">
         <v>5</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="15" t="s">
         <v>371</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -10011,7 +10002,7 @@
       <c r="A25" s="3">
         <v>6</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="15" t="s">
         <v>372</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -10028,7 +10019,7 @@
       <c r="A26" s="3">
         <v>6</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="15" t="s">
         <v>374</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -10045,7 +10036,7 @@
       <c r="A27" s="3">
         <v>19</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="16" t="s">
         <v>376</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -10062,7 +10053,7 @@
       <c r="A28" s="3">
         <v>15</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="15" t="s">
         <v>378</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -10079,7 +10070,7 @@
       <c r="A29" s="3">
         <v>15</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="15" t="s">
         <v>380</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -10096,7 +10087,7 @@
       <c r="A30" s="3">
         <v>16</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="15" t="s">
         <v>382</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -10113,7 +10104,7 @@
       <c r="A31" s="3">
         <v>16</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="15" t="s">
         <v>384</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -10130,7 +10121,7 @@
       <c r="A32" s="3">
         <v>25</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="15" t="s">
         <v>385</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -10147,7 +10138,7 @@
       <c r="A33" s="3">
         <v>26</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="15" t="s">
         <v>387</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -10164,7 +10155,7 @@
       <c r="A34" s="3">
         <v>29</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="15" t="s">
         <v>389</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -10181,7 +10172,7 @@
       <c r="A35" s="3">
         <v>12</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="15" t="s">
         <v>391</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -11668,12 +11659,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="462.57642857142855" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="462.57642857142855" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -11689,7 +11680,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -11707,7 +11698,7 @@
         <v>13</v>
       </c>
       <c r="D2" s="5"/>
-      <c r="E2" s="9"/>
+      <c r="E2" s="11"/>
       <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
@@ -11723,8 +11714,8 @@
         <v>16</v>
       </c>
       <c r="D3" s="5"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10" t="s">
+      <c r="E3" s="11"/>
+      <c r="F3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -11739,8 +11730,8 @@
         <v>16</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10" t="s">
+      <c r="E4" s="11"/>
+      <c r="F4" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -11755,7 +11746,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="9"/>
+      <c r="E5" s="11"/>
       <c r="F5" s="2" t="s">
         <v>20</v>
       </c>
@@ -11771,7 +11762,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="9"/>
+      <c r="E6" s="11"/>
       <c r="F6" s="2" t="s">
         <v>22</v>
       </c>
@@ -11787,7 +11778,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="5"/>
-      <c r="E7" s="9"/>
+      <c r="E7" s="11"/>
       <c r="F7" s="2" t="s">
         <v>24</v>
       </c>
@@ -11803,7 +11794,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="9"/>
+      <c r="E8" s="11"/>
       <c r="F8" s="2" t="s">
         <v>26</v>
       </c>
@@ -11819,7 +11810,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="9"/>
+      <c r="E9" s="11"/>
       <c r="F9" s="2" t="s">
         <v>28</v>
       </c>
@@ -11835,7 +11826,7 @@
         <v>16</v>
       </c>
       <c r="D10" s="5"/>
-      <c r="E10" s="9"/>
+      <c r="E10" s="11"/>
       <c r="F10" s="2" t="s">
         <v>30</v>
       </c>
@@ -11851,7 +11842,7 @@
         <v>16</v>
       </c>
       <c r="D11" s="5"/>
-      <c r="E11" s="9"/>
+      <c r="E11" s="11"/>
       <c r="F11" s="2" t="s">
         <v>32</v>
       </c>
@@ -11867,7 +11858,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="5"/>
-      <c r="E12" s="9"/>
+      <c r="E12" s="11"/>
       <c r="F12" s="2" t="s">
         <v>34</v>
       </c>
@@ -11883,7 +11874,7 @@
         <v>36</v>
       </c>
       <c r="D13" s="5"/>
-      <c r="E13" s="9"/>
+      <c r="E13" s="11"/>
       <c r="F13" s="2" t="s">
         <v>37</v>
       </c>
@@ -11899,7 +11890,7 @@
         <v>36</v>
       </c>
       <c r="D14" s="5"/>
-      <c r="E14" s="9"/>
+      <c r="E14" s="11"/>
       <c r="F14" s="2" t="s">
         <v>39</v>
       </c>
@@ -11915,7 +11906,7 @@
         <v>41</v>
       </c>
       <c r="D15" s="5"/>
-      <c r="E15" s="9"/>
+      <c r="E15" s="11"/>
       <c r="F15" s="2" t="s">
         <v>42</v>
       </c>
@@ -11931,7 +11922,7 @@
         <v>44</v>
       </c>
       <c r="D16" s="5"/>
-      <c r="E16" s="9"/>
+      <c r="E16" s="11"/>
       <c r="F16" s="2" t="s">
         <v>45</v>
       </c>
@@ -11947,7 +11938,7 @@
         <v>36</v>
       </c>
       <c r="D17" s="5"/>
-      <c r="E17" s="9"/>
+      <c r="E17" s="11"/>
       <c r="F17" s="2" t="s">
         <v>47</v>
       </c>
@@ -11963,7 +11954,7 @@
         <v>36</v>
       </c>
       <c r="D18" s="5"/>
-      <c r="E18" s="9"/>
+      <c r="E18" s="11"/>
       <c r="F18" s="2" t="s">
         <v>49</v>
       </c>
@@ -11979,7 +11970,7 @@
         <v>36</v>
       </c>
       <c r="D19" s="5"/>
-      <c r="E19" s="9"/>
+      <c r="E19" s="11"/>
       <c r="F19" s="2" t="s">
         <v>51</v>
       </c>
@@ -11995,7 +11986,7 @@
         <v>36</v>
       </c>
       <c r="D20" s="5"/>
-      <c r="E20" s="9"/>
+      <c r="E20" s="11"/>
       <c r="F20" s="2" t="s">
         <v>53</v>
       </c>
@@ -12011,7 +12002,7 @@
         <v>55</v>
       </c>
       <c r="D21" s="5"/>
-      <c r="E21" s="9"/>
+      <c r="E21" s="11"/>
       <c r="F21" s="2" t="s">
         <v>56</v>
       </c>
@@ -12027,7 +12018,7 @@
         <v>58</v>
       </c>
       <c r="D22" s="5"/>
-      <c r="E22" s="9"/>
+      <c r="E22" s="11"/>
       <c r="F22" s="2" t="s">
         <v>59</v>
       </c>
@@ -12043,7 +12034,7 @@
         <v>36</v>
       </c>
       <c r="D23" s="5"/>
-      <c r="E23" s="9"/>
+      <c r="E23" s="11"/>
       <c r="F23" s="2" t="s">
         <v>61</v>
       </c>
@@ -12059,7 +12050,7 @@
         <v>36</v>
       </c>
       <c r="D24" s="5"/>
-      <c r="E24" s="9"/>
+      <c r="E24" s="11"/>
       <c r="F24" s="2" t="s">
         <v>63</v>
       </c>
@@ -12075,7 +12066,7 @@
         <v>36</v>
       </c>
       <c r="D25" s="5"/>
-      <c r="E25" s="9"/>
+      <c r="E25" s="11"/>
       <c r="F25" s="2" t="s">
         <v>65</v>
       </c>
@@ -12091,7 +12082,7 @@
         <v>67</v>
       </c>
       <c r="D26" s="5"/>
-      <c r="E26" s="9"/>
+      <c r="E26" s="11"/>
       <c r="F26" s="2" t="s">
         <v>68</v>
       </c>
@@ -12107,7 +12098,7 @@
         <v>70</v>
       </c>
       <c r="D27" s="5"/>
-      <c r="E27" s="9"/>
+      <c r="E27" s="11"/>
       <c r="F27" s="2" t="s">
         <v>71</v>
       </c>
@@ -12123,7 +12114,7 @@
         <v>73</v>
       </c>
       <c r="D28" s="5"/>
-      <c r="E28" s="9"/>
+      <c r="E28" s="11"/>
       <c r="F28" s="2" t="s">
         <v>74</v>
       </c>
@@ -12139,7 +12130,7 @@
         <v>73</v>
       </c>
       <c r="D29" s="5"/>
-      <c r="E29" s="9"/>
+      <c r="E29" s="11"/>
       <c r="F29" s="2" t="s">
         <v>76</v>
       </c>
@@ -12151,9 +12142,9 @@
       <c r="B30" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="5"/>
+      <c r="C30" s="6"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="9"/>
+      <c r="E30" s="11"/>
       <c r="F30" s="2" t="s">
         <v>78</v>
       </c>
@@ -12169,7 +12160,7 @@
         <v>73</v>
       </c>
       <c r="D31" s="5"/>
-      <c r="E31" s="9"/>
+      <c r="E31" s="11"/>
       <c r="F31" s="2" t="s">
         <v>80</v>
       </c>
@@ -12185,7 +12176,7 @@
         <v>73</v>
       </c>
       <c r="D32" s="5"/>
-      <c r="E32" s="9"/>
+      <c r="E32" s="11"/>
       <c r="F32" s="2" t="s">
         <v>82</v>
       </c>
@@ -12201,7 +12192,7 @@
         <v>73</v>
       </c>
       <c r="D33" s="5"/>
-      <c r="E33" s="9"/>
+      <c r="E33" s="11"/>
       <c r="F33" s="2" t="s">
         <v>84</v>
       </c>
@@ -12217,7 +12208,7 @@
         <v>73</v>
       </c>
       <c r="D34" s="5"/>
-      <c r="E34" s="9"/>
+      <c r="E34" s="11"/>
       <c r="F34" s="2" t="s">
         <v>86</v>
       </c>
@@ -12233,7 +12224,7 @@
         <v>16</v>
       </c>
       <c r="D35" s="5"/>
-      <c r="E35" s="9"/>
+      <c r="E35" s="11"/>
       <c r="F35" s="2" t="s">
         <v>88</v>
       </c>
@@ -12249,7 +12240,7 @@
         <v>73</v>
       </c>
       <c r="D36" s="5"/>
-      <c r="E36" s="9"/>
+      <c r="E36" s="11"/>
       <c r="F36" s="2" t="s">
         <v>90</v>
       </c>
@@ -12265,7 +12256,7 @@
         <v>73</v>
       </c>
       <c r="D37" s="5"/>
-      <c r="E37" s="9"/>
+      <c r="E37" s="11"/>
       <c r="F37" s="2" t="s">
         <v>92</v>
       </c>
@@ -12281,7 +12272,7 @@
         <v>73</v>
       </c>
       <c r="D38" s="5"/>
-      <c r="E38" s="9"/>
+      <c r="E38" s="11"/>
       <c r="F38" s="2" t="s">
         <v>94</v>
       </c>
@@ -12297,7 +12288,7 @@
         <v>55</v>
       </c>
       <c r="D39" s="5"/>
-      <c r="E39" s="9"/>
+      <c r="E39" s="11"/>
       <c r="F39" s="2" t="s">
         <v>96</v>
       </c>
@@ -12313,7 +12304,7 @@
         <v>73</v>
       </c>
       <c r="D40" s="5"/>
-      <c r="E40" s="9"/>
+      <c r="E40" s="11"/>
       <c r="F40" s="2" t="s">
         <v>98</v>
       </c>
@@ -12329,7 +12320,7 @@
         <v>73</v>
       </c>
       <c r="D41" s="5"/>
-      <c r="E41" s="9"/>
+      <c r="E41" s="11"/>
       <c r="F41" s="2" t="s">
         <v>100</v>
       </c>
@@ -12345,7 +12336,7 @@
         <v>73</v>
       </c>
       <c r="D42" s="5"/>
-      <c r="E42" s="9"/>
+      <c r="E42" s="11"/>
       <c r="F42" s="2" t="s">
         <v>102</v>
       </c>
@@ -12361,7 +12352,7 @@
         <v>73</v>
       </c>
       <c r="D43" s="5"/>
-      <c r="E43" s="9"/>
+      <c r="E43" s="11"/>
       <c r="F43" s="2" t="s">
         <v>104</v>
       </c>
@@ -12377,7 +12368,7 @@
         <v>16</v>
       </c>
       <c r="D44" s="5"/>
-      <c r="E44" s="9"/>
+      <c r="E44" s="11"/>
       <c r="F44" s="2" t="s">
         <v>106</v>
       </c>
@@ -12393,7 +12384,7 @@
         <v>73</v>
       </c>
       <c r="D45" s="5"/>
-      <c r="E45" s="9"/>
+      <c r="E45" s="11"/>
       <c r="F45" s="2" t="s">
         <v>108</v>
       </c>
@@ -12409,7 +12400,7 @@
         <v>73</v>
       </c>
       <c r="D46" s="5"/>
-      <c r="E46" s="9"/>
+      <c r="E46" s="11"/>
       <c r="F46" s="2" t="s">
         <v>110</v>
       </c>
@@ -12425,7 +12416,7 @@
         <v>73</v>
       </c>
       <c r="D47" s="5"/>
-      <c r="E47" s="9"/>
+      <c r="E47" s="11"/>
       <c r="F47" s="2" t="s">
         <v>112</v>
       </c>
@@ -12441,7 +12432,7 @@
         <v>73</v>
       </c>
       <c r="D48" s="5"/>
-      <c r="E48" s="9"/>
+      <c r="E48" s="11"/>
       <c r="F48" s="2" t="s">
         <v>114</v>
       </c>
@@ -12457,7 +12448,7 @@
         <v>73</v>
       </c>
       <c r="D49" s="5"/>
-      <c r="E49" s="9"/>
+      <c r="E49" s="11"/>
       <c r="F49" s="2" t="s">
         <v>116</v>
       </c>
@@ -12473,7 +12464,7 @@
         <v>73</v>
       </c>
       <c r="D50" s="5"/>
-      <c r="E50" s="9"/>
+      <c r="E50" s="11"/>
       <c r="F50" s="2" t="s">
         <v>118</v>
       </c>
@@ -12489,7 +12480,7 @@
         <v>73</v>
       </c>
       <c r="D51" s="5"/>
-      <c r="E51" s="9"/>
+      <c r="E51" s="11"/>
       <c r="F51" s="2" t="s">
         <v>120</v>
       </c>
@@ -12505,7 +12496,7 @@
         <v>73</v>
       </c>
       <c r="D52" s="5"/>
-      <c r="E52" s="9"/>
+      <c r="E52" s="11"/>
       <c r="F52" s="2" t="s">
         <v>122</v>
       </c>
@@ -12521,7 +12512,7 @@
         <v>73</v>
       </c>
       <c r="D53" s="5"/>
-      <c r="E53" s="9"/>
+      <c r="E53" s="11"/>
       <c r="F53" s="2" t="s">
         <v>124</v>
       </c>
@@ -12537,7 +12528,7 @@
         <v>73</v>
       </c>
       <c r="D54" s="5"/>
-      <c r="E54" s="9"/>
+      <c r="E54" s="11"/>
       <c r="F54" s="2" t="s">
         <v>126</v>
       </c>
@@ -12553,7 +12544,7 @@
         <v>73</v>
       </c>
       <c r="D55" s="5"/>
-      <c r="E55" s="9"/>
+      <c r="E55" s="11"/>
       <c r="F55" s="2" t="s">
         <v>128</v>
       </c>
@@ -12569,7 +12560,7 @@
         <v>73</v>
       </c>
       <c r="D56" s="5"/>
-      <c r="E56" s="9"/>
+      <c r="E56" s="11"/>
       <c r="F56" s="2" t="s">
         <v>130</v>
       </c>
@@ -12585,7 +12576,7 @@
         <v>73</v>
       </c>
       <c r="D57" s="5"/>
-      <c r="E57" s="9"/>
+      <c r="E57" s="11"/>
       <c r="F57" s="2" t="s">
         <v>132</v>
       </c>
@@ -12601,7 +12592,7 @@
         <v>73</v>
       </c>
       <c r="D58" s="5"/>
-      <c r="E58" s="9"/>
+      <c r="E58" s="11"/>
       <c r="F58" s="2" t="s">
         <v>134</v>
       </c>
@@ -12617,7 +12608,7 @@
         <v>73</v>
       </c>
       <c r="D59" s="5"/>
-      <c r="E59" s="9"/>
+      <c r="E59" s="11"/>
       <c r="F59" s="2" t="s">
         <v>136</v>
       </c>
@@ -12633,7 +12624,7 @@
         <v>73</v>
       </c>
       <c r="D60" s="5"/>
-      <c r="E60" s="9"/>
+      <c r="E60" s="11"/>
       <c r="F60" s="2" t="s">
         <v>138</v>
       </c>
@@ -12649,7 +12640,7 @@
         <v>73</v>
       </c>
       <c r="D61" s="5"/>
-      <c r="E61" s="9"/>
+      <c r="E61" s="11"/>
       <c r="F61" s="2" t="s">
         <v>140</v>
       </c>
@@ -12665,7 +12656,7 @@
         <v>73</v>
       </c>
       <c r="D62" s="5"/>
-      <c r="E62" s="9"/>
+      <c r="E62" s="11"/>
       <c r="F62" s="2" t="s">
         <v>142</v>
       </c>
@@ -12681,7 +12672,7 @@
         <v>73</v>
       </c>
       <c r="D63" s="5"/>
-      <c r="E63" s="9"/>
+      <c r="E63" s="11"/>
       <c r="F63" s="2" t="s">
         <v>144</v>
       </c>
@@ -12697,7 +12688,7 @@
         <v>73</v>
       </c>
       <c r="D64" s="5"/>
-      <c r="E64" s="9"/>
+      <c r="E64" s="11"/>
       <c r="F64" s="2" t="s">
         <v>146</v>
       </c>
@@ -12713,7 +12704,7 @@
         <v>73</v>
       </c>
       <c r="D65" s="5"/>
-      <c r="E65" s="9"/>
+      <c r="E65" s="11"/>
       <c r="F65" s="2" t="s">
         <v>148</v>
       </c>
@@ -12729,7 +12720,7 @@
         <v>73</v>
       </c>
       <c r="D66" s="5"/>
-      <c r="E66" s="9"/>
+      <c r="E66" s="11"/>
       <c r="F66" s="2" t="s">
         <v>150</v>
       </c>
@@ -12745,7 +12736,7 @@
         <v>73</v>
       </c>
       <c r="D67" s="5"/>
-      <c r="E67" s="9"/>
+      <c r="E67" s="11"/>
       <c r="F67" s="2" t="s">
         <v>152</v>
       </c>
@@ -12761,7 +12752,7 @@
         <v>73</v>
       </c>
       <c r="D68" s="5"/>
-      <c r="E68" s="9"/>
+      <c r="E68" s="11"/>
       <c r="F68" s="2" t="s">
         <v>154</v>
       </c>
@@ -12777,7 +12768,7 @@
         <v>73</v>
       </c>
       <c r="D69" s="5"/>
-      <c r="E69" s="9"/>
+      <c r="E69" s="11"/>
       <c r="F69" s="2" t="s">
         <v>156</v>
       </c>
@@ -12793,7 +12784,7 @@
         <v>73</v>
       </c>
       <c r="D70" s="5"/>
-      <c r="E70" s="9"/>
+      <c r="E70" s="11"/>
       <c r="F70" s="2" t="s">
         <v>158</v>
       </c>
@@ -12809,7 +12800,7 @@
         <v>73</v>
       </c>
       <c r="D71" s="5"/>
-      <c r="E71" s="9"/>
+      <c r="E71" s="11"/>
       <c r="F71" s="2" t="s">
         <v>160</v>
       </c>
@@ -12825,7 +12816,7 @@
         <v>73</v>
       </c>
       <c r="D72" s="5"/>
-      <c r="E72" s="9"/>
+      <c r="E72" s="11"/>
       <c r="F72" s="2" t="s">
         <v>162</v>
       </c>
@@ -12841,7 +12832,7 @@
         <v>73</v>
       </c>
       <c r="D73" s="5"/>
-      <c r="E73" s="9"/>
+      <c r="E73" s="11"/>
       <c r="F73" s="2" t="s">
         <v>164</v>
       </c>
@@ -12857,7 +12848,7 @@
         <v>73</v>
       </c>
       <c r="D74" s="5"/>
-      <c r="E74" s="9"/>
+      <c r="E74" s="11"/>
       <c r="F74" s="2" t="s">
         <v>166</v>
       </c>
@@ -12873,7 +12864,7 @@
         <v>73</v>
       </c>
       <c r="D75" s="5"/>
-      <c r="E75" s="9"/>
+      <c r="E75" s="11"/>
       <c r="F75" s="2" t="s">
         <v>168</v>
       </c>
@@ -12889,7 +12880,7 @@
         <v>73</v>
       </c>
       <c r="D76" s="5"/>
-      <c r="E76" s="9"/>
+      <c r="E76" s="11"/>
       <c r="F76" s="2" t="s">
         <v>170</v>
       </c>
@@ -12905,7 +12896,7 @@
         <v>73</v>
       </c>
       <c r="D77" s="5"/>
-      <c r="E77" s="9"/>
+      <c r="E77" s="11"/>
       <c r="F77" s="2" t="s">
         <v>172</v>
       </c>
@@ -12921,7 +12912,7 @@
         <v>73</v>
       </c>
       <c r="D78" s="5"/>
-      <c r="E78" s="9"/>
+      <c r="E78" s="11"/>
       <c r="F78" s="2" t="s">
         <v>174</v>
       </c>
@@ -12937,7 +12928,7 @@
         <v>73</v>
       </c>
       <c r="D79" s="5"/>
-      <c r="E79" s="9"/>
+      <c r="E79" s="11"/>
       <c r="F79" s="2" t="s">
         <v>176</v>
       </c>
@@ -12953,7 +12944,7 @@
         <v>73</v>
       </c>
       <c r="D80" s="5"/>
-      <c r="E80" s="9"/>
+      <c r="E80" s="11"/>
       <c r="F80" s="2" t="s">
         <v>178</v>
       </c>
@@ -12969,7 +12960,7 @@
         <v>73</v>
       </c>
       <c r="D81" s="5"/>
-      <c r="E81" s="9"/>
+      <c r="E81" s="11"/>
       <c r="F81" s="2" t="s">
         <v>180</v>
       </c>
@@ -12985,7 +12976,7 @@
         <v>73</v>
       </c>
       <c r="D82" s="5"/>
-      <c r="E82" s="9"/>
+      <c r="E82" s="11"/>
       <c r="F82" s="2" t="s">
         <v>182</v>
       </c>
@@ -13001,7 +12992,7 @@
         <v>73</v>
       </c>
       <c r="D83" s="5"/>
-      <c r="E83" s="9"/>
+      <c r="E83" s="11"/>
       <c r="F83" s="2" t="s">
         <v>184</v>
       </c>
@@ -13017,7 +13008,7 @@
         <v>73</v>
       </c>
       <c r="D84" s="5"/>
-      <c r="E84" s="9"/>
+      <c r="E84" s="11"/>
       <c r="F84" s="2" t="s">
         <v>186</v>
       </c>
@@ -13033,7 +13024,7 @@
         <v>73</v>
       </c>
       <c r="D85" s="5"/>
-      <c r="E85" s="9"/>
+      <c r="E85" s="11"/>
       <c r="F85" s="2" t="s">
         <v>188</v>
       </c>
@@ -13049,7 +13040,7 @@
         <v>73</v>
       </c>
       <c r="D86" s="5"/>
-      <c r="E86" s="9"/>
+      <c r="E86" s="11"/>
       <c r="F86" s="2" t="s">
         <v>190</v>
       </c>
@@ -13065,7 +13056,7 @@
         <v>73</v>
       </c>
       <c r="D87" s="5"/>
-      <c r="E87" s="9"/>
+      <c r="E87" s="11"/>
       <c r="F87" s="2" t="s">
         <v>192</v>
       </c>
@@ -13081,7 +13072,7 @@
         <v>73</v>
       </c>
       <c r="D88" s="5"/>
-      <c r="E88" s="9"/>
+      <c r="E88" s="11"/>
       <c r="F88" s="2" t="s">
         <v>194</v>
       </c>
@@ -13097,7 +13088,7 @@
         <v>73</v>
       </c>
       <c r="D89" s="5"/>
-      <c r="E89" s="9"/>
+      <c r="E89" s="11"/>
       <c r="F89" s="2" t="s">
         <v>196</v>
       </c>
@@ -13113,7 +13104,7 @@
         <v>16</v>
       </c>
       <c r="D90" s="5"/>
-      <c r="E90" s="9"/>
+      <c r="E90" s="11"/>
       <c r="F90" s="2" t="s">
         <v>198</v>
       </c>
@@ -13129,7 +13120,7 @@
         <v>73</v>
       </c>
       <c r="D91" s="5"/>
-      <c r="E91" s="9"/>
+      <c r="E91" s="11"/>
       <c r="F91" s="2" t="s">
         <v>200</v>
       </c>
@@ -13145,7 +13136,7 @@
         <v>73</v>
       </c>
       <c r="D92" s="5"/>
-      <c r="E92" s="9"/>
+      <c r="E92" s="11"/>
       <c r="F92" s="2" t="s">
         <v>202</v>
       </c>
@@ -13161,7 +13152,7 @@
         <v>16</v>
       </c>
       <c r="D93" s="5"/>
-      <c r="E93" s="9"/>
+      <c r="E93" s="11"/>
       <c r="F93" s="2" t="s">
         <v>204</v>
       </c>
@@ -13177,7 +13168,7 @@
         <v>206</v>
       </c>
       <c r="D94" s="5"/>
-      <c r="E94" s="9"/>
+      <c r="E94" s="11"/>
       <c r="F94" s="2" t="s">
         <v>207</v>
       </c>
@@ -13193,7 +13184,7 @@
         <v>209</v>
       </c>
       <c r="D95" s="5"/>
-      <c r="E95" s="9"/>
+      <c r="E95" s="11"/>
       <c r="F95" s="2" t="s">
         <v>210</v>
       </c>
@@ -13209,7 +13200,7 @@
         <v>209</v>
       </c>
       <c r="D96" s="5"/>
-      <c r="E96" s="9"/>
+      <c r="E96" s="11"/>
       <c r="F96" s="2" t="s">
         <v>212</v>
       </c>
@@ -13225,7 +13216,7 @@
         <v>209</v>
       </c>
       <c r="D97" s="5"/>
-      <c r="E97" s="9"/>
+      <c r="E97" s="11"/>
       <c r="F97" s="2" t="s">
         <v>214</v>
       </c>
@@ -13241,7 +13232,7 @@
         <v>209</v>
       </c>
       <c r="D98" s="5"/>
-      <c r="E98" s="9"/>
+      <c r="E98" s="11"/>
       <c r="F98" s="2" t="s">
         <v>216</v>
       </c>
@@ -13257,7 +13248,7 @@
         <v>209</v>
       </c>
       <c r="D99" s="5"/>
-      <c r="E99" s="9"/>
+      <c r="E99" s="11"/>
       <c r="F99" s="2" t="s">
         <v>218</v>
       </c>
@@ -13273,7 +13264,7 @@
         <v>209</v>
       </c>
       <c r="D100" s="5"/>
-      <c r="E100" s="9"/>
+      <c r="E100" s="11"/>
       <c r="F100" s="2" t="s">
         <v>220</v>
       </c>
@@ -13289,7 +13280,7 @@
         <v>209</v>
       </c>
       <c r="D101" s="5"/>
-      <c r="E101" s="9"/>
+      <c r="E101" s="11"/>
       <c r="F101" s="2" t="s">
         <v>222</v>
       </c>
@@ -13305,7 +13296,7 @@
         <v>209</v>
       </c>
       <c r="D102" s="5"/>
-      <c r="E102" s="9"/>
+      <c r="E102" s="11"/>
       <c r="F102" s="2" t="s">
         <v>224</v>
       </c>
@@ -13321,7 +13312,7 @@
         <v>13</v>
       </c>
       <c r="D103" s="5"/>
-      <c r="E103" s="9"/>
+      <c r="E103" s="11"/>
       <c r="F103" s="2" t="s">
         <v>226</v>
       </c>
@@ -13330,12 +13321,12 @@
       <c r="A104" s="3">
         <v>22</v>
       </c>
-      <c r="B104" s="5"/>
+      <c r="B104" s="6"/>
       <c r="C104" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D104" s="5"/>
-      <c r="E104" s="11">
+      <c r="E104" s="12">
         <v>44620</v>
       </c>
       <c r="F104" s="2" t="s">
@@ -13353,7 +13344,7 @@
         <v>73</v>
       </c>
       <c r="D105" s="5"/>
-      <c r="E105" s="11">
+      <c r="E105" s="12">
         <v>44617</v>
       </c>
       <c r="F105" s="2" t="s">
@@ -13371,7 +13362,7 @@
         <v>73</v>
       </c>
       <c r="D106" s="5"/>
-      <c r="E106" s="11">
+      <c r="E106" s="12">
         <v>43193</v>
       </c>
       <c r="F106" s="2" t="s">
@@ -13389,7 +13380,7 @@
         <v>73</v>
       </c>
       <c r="D107" s="5"/>
-      <c r="E107" s="11">
+      <c r="E107" s="12">
         <v>43167</v>
       </c>
       <c r="F107" s="2" t="s">
@@ -13407,7 +13398,7 @@
         <v>73</v>
       </c>
       <c r="D108" s="5"/>
-      <c r="E108" s="11">
+      <c r="E108" s="12">
         <v>42974</v>
       </c>
       <c r="F108" s="2" t="s">
@@ -13425,7 +13416,7 @@
         <v>73</v>
       </c>
       <c r="D109" s="5"/>
-      <c r="E109" s="11">
+      <c r="E109" s="12">
         <v>42929</v>
       </c>
       <c r="F109" s="2" t="s">
@@ -13443,7 +13434,7 @@
         <v>73</v>
       </c>
       <c r="D110" s="5"/>
-      <c r="E110" s="11">
+      <c r="E110" s="12">
         <v>42939</v>
       </c>
       <c r="F110" s="2" t="s">
@@ -13461,7 +13452,7 @@
         <v>73</v>
       </c>
       <c r="D111" s="5"/>
-      <c r="E111" s="11">
+      <c r="E111" s="12">
         <v>42768</v>
       </c>
       <c r="F111" s="2" t="s">
@@ -13479,7 +13470,7 @@
         <v>73</v>
       </c>
       <c r="D112" s="5"/>
-      <c r="E112" s="12">
+      <c r="E112" s="13">
         <v>42731</v>
       </c>
       <c r="F112" s="2" t="s">
@@ -13497,7 +13488,7 @@
         <v>73</v>
       </c>
       <c r="D113" s="5"/>
-      <c r="E113" s="11">
+      <c r="E113" s="12">
         <v>42508</v>
       </c>
       <c r="F113" s="2" t="s">
@@ -13515,7 +13506,7 @@
         <v>73</v>
       </c>
       <c r="D114" s="5"/>
-      <c r="E114" s="12">
+      <c r="E114" s="13">
         <v>43391</v>
       </c>
       <c r="F114" s="2" t="s">
@@ -13533,7 +13524,7 @@
         <v>73</v>
       </c>
       <c r="D115" s="5"/>
-      <c r="E115" s="11">
+      <c r="E115" s="12">
         <v>43286</v>
       </c>
       <c r="F115" s="2" t="s">
@@ -13551,7 +13542,7 @@
         <v>73</v>
       </c>
       <c r="D116" s="5"/>
-      <c r="E116" s="11">
+      <c r="E116" s="12">
         <v>43298</v>
       </c>
       <c r="F116" s="2" t="s">
@@ -13569,7 +13560,7 @@
         <v>73</v>
       </c>
       <c r="D117" s="5"/>
-      <c r="E117" s="11">
+      <c r="E117" s="12">
         <v>42992</v>
       </c>
       <c r="F117" s="2" t="s">
@@ -13587,7 +13578,7 @@
         <v>73</v>
       </c>
       <c r="D118" s="5"/>
-      <c r="E118" s="11">
+      <c r="E118" s="12">
         <v>42398</v>
       </c>
       <c r="F118" s="2" t="s">
@@ -13605,7 +13596,7 @@
         <v>73</v>
       </c>
       <c r="D119" s="5"/>
-      <c r="E119" s="11">
+      <c r="E119" s="12">
         <v>42763</v>
       </c>
       <c r="F119" s="2" t="s">
@@ -13623,7 +13614,7 @@
         <v>73</v>
       </c>
       <c r="D120" s="5"/>
-      <c r="E120" s="11">
+      <c r="E120" s="12">
         <v>41947</v>
       </c>
       <c r="F120" s="2" t="s">
@@ -13641,7 +13632,7 @@
         <v>73</v>
       </c>
       <c r="D121" s="5"/>
-      <c r="E121" s="12">
+      <c r="E121" s="13">
         <v>42348</v>
       </c>
       <c r="F121" s="2" t="s">
@@ -13659,7 +13650,7 @@
         <v>73</v>
       </c>
       <c r="D122" s="5"/>
-      <c r="E122" s="11">
+      <c r="E122" s="12">
         <v>41945</v>
       </c>
       <c r="F122" s="2" t="s">
@@ -13677,7 +13668,7 @@
         <v>73</v>
       </c>
       <c r="D123" s="5"/>
-      <c r="E123" s="11">
+      <c r="E123" s="12">
         <v>43247</v>
       </c>
       <c r="F123" s="2" t="s">
@@ -13695,7 +13686,7 @@
         <v>73</v>
       </c>
       <c r="D124" s="5"/>
-      <c r="E124" s="11">
+      <c r="E124" s="12">
         <v>42248</v>
       </c>
       <c r="F124" s="2" t="s">
@@ -13713,7 +13704,7 @@
         <v>73</v>
       </c>
       <c r="D125" s="5"/>
-      <c r="E125" s="11">
+      <c r="E125" s="12">
         <v>43251</v>
       </c>
       <c r="F125" s="2" t="s">
@@ -13731,7 +13722,7 @@
         <v>73</v>
       </c>
       <c r="D126" s="5"/>
-      <c r="E126" s="11">
+      <c r="E126" s="12">
         <v>43150</v>
       </c>
       <c r="F126" s="2" t="s">
@@ -13749,7 +13740,7 @@
         <v>73</v>
       </c>
       <c r="D127" s="5"/>
-      <c r="E127" s="12">
+      <c r="E127" s="13">
         <v>41967</v>
       </c>
       <c r="F127" s="2" t="s">
@@ -13767,7 +13758,7 @@
         <v>73</v>
       </c>
       <c r="D128" s="5"/>
-      <c r="E128" s="11">
+      <c r="E128" s="12">
         <v>44943</v>
       </c>
       <c r="F128" s="2" t="s">
@@ -13785,7 +13776,7 @@
         <v>73</v>
       </c>
       <c r="D129" s="5"/>
-      <c r="E129" s="11">
+      <c r="E129" s="12">
         <v>45062</v>
       </c>
       <c r="F129" s="2" t="s">
@@ -13803,7 +13794,7 @@
         <v>279</v>
       </c>
       <c r="D130" s="5"/>
-      <c r="E130" s="11">
+      <c r="E130" s="12">
         <v>44999</v>
       </c>
       <c r="F130" s="2" t="s">
@@ -13821,7 +13812,7 @@
         <v>73</v>
       </c>
       <c r="D131" s="5"/>
-      <c r="E131" s="11">
+      <c r="E131" s="12">
         <v>44228</v>
       </c>
       <c r="F131" s="2" t="s">
@@ -13839,7 +13830,7 @@
         <v>73</v>
       </c>
       <c r="D132" s="5"/>
-      <c r="E132" s="11">
+      <c r="E132" s="12">
         <v>43683</v>
       </c>
       <c r="F132" s="2" t="s">
@@ -13857,7 +13848,7 @@
         <v>73</v>
       </c>
       <c r="D133" s="5"/>
-      <c r="E133" s="11">
+      <c r="E133" s="12">
         <v>42915</v>
       </c>
       <c r="F133" s="2" t="s">
@@ -13875,7 +13866,7 @@
         <v>73</v>
       </c>
       <c r="D134" s="5"/>
-      <c r="E134" s="11">
+      <c r="E134" s="12">
         <v>41528</v>
       </c>
       <c r="F134" s="2" t="s">
@@ -13893,7 +13884,7 @@
         <v>73</v>
       </c>
       <c r="D135" s="5"/>
-      <c r="E135" s="11">
+      <c r="E135" s="12">
         <v>41508</v>
       </c>
       <c r="F135" s="2" t="s">
@@ -13911,7 +13902,7 @@
         <v>16</v>
       </c>
       <c r="D136" s="5"/>
-      <c r="E136" s="8" t="s">
+      <c r="E136" s="10" t="s">
         <v>292</v>
       </c>
       <c r="F136" s="2" t="s">
@@ -13929,7 +13920,7 @@
         <v>73</v>
       </c>
       <c r="D137" s="5"/>
-      <c r="E137" s="11">
+      <c r="E137" s="12">
         <v>41320</v>
       </c>
       <c r="F137" s="2" t="s">
@@ -13947,7 +13938,7 @@
         <v>73</v>
       </c>
       <c r="D138" s="5"/>
-      <c r="E138" s="11">
+      <c r="E138" s="12">
         <v>45165</v>
       </c>
       <c r="F138" s="2" t="s">
@@ -13965,7 +13956,7 @@
         <v>73</v>
       </c>
       <c r="D139" s="5"/>
-      <c r="E139" s="11">
+      <c r="E139" s="12">
         <v>45153</v>
       </c>
       <c r="F139" s="2" t="s">
@@ -13983,7 +13974,7 @@
         <v>73</v>
       </c>
       <c r="D140" s="5"/>
-      <c r="E140" s="11">
+      <c r="E140" s="12">
         <v>45114</v>
       </c>
       <c r="F140" s="2" t="s">
@@ -14001,7 +13992,7 @@
         <v>73</v>
       </c>
       <c r="D141" s="5"/>
-      <c r="E141" s="11">
+      <c r="E141" s="12">
         <v>45080</v>
       </c>
       <c r="F141" s="2" t="s">
@@ -14019,7 +14010,7 @@
         <v>73</v>
       </c>
       <c r="D142" s="5"/>
-      <c r="E142" s="11">
+      <c r="E142" s="12">
         <v>45012</v>
       </c>
       <c r="F142" s="2" t="s">
@@ -14037,7 +14028,7 @@
         <v>73</v>
       </c>
       <c r="D143" s="5"/>
-      <c r="E143" s="11">
+      <c r="E143" s="12">
         <v>44987</v>
       </c>
       <c r="F143" s="2" t="s">
@@ -14055,7 +14046,7 @@
         <v>73</v>
       </c>
       <c r="D144" s="5"/>
-      <c r="E144" s="12">
+      <c r="E144" s="13">
         <v>44862</v>
       </c>
       <c r="F144" s="2" t="s">
@@ -14073,7 +14064,7 @@
         <v>73</v>
       </c>
       <c r="D145" s="5"/>
-      <c r="E145" s="12">
+      <c r="E145" s="13">
         <v>44852</v>
       </c>
       <c r="F145" s="2" t="s">
@@ -14091,7 +14082,7 @@
         <v>73</v>
       </c>
       <c r="D146" s="5"/>
-      <c r="E146" s="11">
+      <c r="E146" s="12">
         <v>44725</v>
       </c>
       <c r="F146" s="2" t="s">
@@ -14109,7 +14100,7 @@
         <v>73</v>
       </c>
       <c r="D147" s="5"/>
-      <c r="E147" s="11">
+      <c r="E147" s="12">
         <v>44664</v>
       </c>
       <c r="F147" s="2" t="s">
@@ -14127,7 +14118,7 @@
         <v>73</v>
       </c>
       <c r="D148" s="5"/>
-      <c r="E148" s="11">
+      <c r="E148" s="12">
         <v>44630</v>
       </c>
       <c r="F148" s="2" t="s">
@@ -14145,7 +14136,7 @@
         <v>73</v>
       </c>
       <c r="D149" s="5"/>
-      <c r="E149" s="11">
+      <c r="E149" s="12">
         <v>44599</v>
       </c>
       <c r="F149" s="2" t="s">
@@ -14163,7 +14154,7 @@
         <v>73</v>
       </c>
       <c r="D150" s="5"/>
-      <c r="E150" s="11">
+      <c r="E150" s="12">
         <v>43863</v>
       </c>
       <c r="F150" s="2" t="s">
@@ -14181,7 +14172,7 @@
         <v>73</v>
       </c>
       <c r="D151" s="5"/>
-      <c r="E151" s="11">
+      <c r="E151" s="12">
         <v>43772</v>
       </c>
       <c r="F151" s="2" t="s">
@@ -14199,7 +14190,7 @@
         <v>73</v>
       </c>
       <c r="D152" s="5"/>
-      <c r="E152" s="11">
+      <c r="E152" s="12">
         <v>43567</v>
       </c>
       <c r="F152" s="2" t="s">
@@ -14222,12 +14213,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -14285,7 +14276,7 @@
       <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>

--- a/data/Base de données anti trans.xlsx
+++ b/data/Base de données anti trans.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="494">
   <si>
     <t>ID ASSO</t>
   </si>
@@ -6661,6 +6661,9 @@
     <t>Idéologie_simplifiée</t>
   </si>
   <si>
+    <t>placement_droite</t>
+  </si>
+  <si>
     <t>statut</t>
   </si>
   <si>
@@ -6676,6 +6679,9 @@
     <t>CT</t>
   </si>
   <si>
+    <t>VRAI</t>
+  </si>
+  <si>
     <t>AGRIF</t>
   </si>
   <si>
@@ -6697,7 +6703,7 @@
     <t>Nationaliste, Identitaire</t>
   </si>
   <si>
-    <t>Vert = A scrapper</t>
+    <t/>
   </si>
   <si>
     <t>ISSEP</t>
@@ -6709,9 +6715,6 @@
     <t>Extrême-Droite</t>
   </si>
   <si>
-    <t>XD = extrême droite</t>
-  </si>
-  <si>
     <t>Egalité et Réconciliation</t>
   </si>
   <si>
@@ -6724,27 +6727,18 @@
     <t>échec : pas de contenu textuel</t>
   </si>
   <si>
-    <t>FE = féministe essentialiste</t>
-  </si>
-  <si>
     <t>La Porte Latine</t>
   </si>
   <si>
     <t>https://laportelatine.org/</t>
   </si>
   <si>
-    <t>ED = éducation centric</t>
-  </si>
-  <si>
     <t>Rassemblement National</t>
   </si>
   <si>
     <t>https://rassemblementnational.fr/</t>
   </si>
   <si>
-    <t>CT = catho, traditionnaliste</t>
-  </si>
-  <si>
     <t>Action Française</t>
   </si>
   <si>
@@ -6754,9 +6748,6 @@
     <t>Monarchiste</t>
   </si>
   <si>
-    <t>PS = pseudo scientific centric</t>
-  </si>
-  <si>
     <t>Riposte Catholique</t>
   </si>
   <si>
@@ -6775,6 +6766,9 @@
     <t>FE</t>
   </si>
   <si>
+    <t>FAUX</t>
+  </si>
+  <si>
     <t>SOS Education</t>
   </si>
   <si>
@@ -6787,84 +6781,78 @@
     <t>ED</t>
   </si>
   <si>
+    <t>Femelliste</t>
+  </si>
+  <si>
+    <t>https://www.femelliste.com/</t>
+  </si>
+  <si>
+    <t>TERF</t>
+  </si>
+  <si>
+    <t>fait</t>
+  </si>
+  <si>
+    <t>TRADFEM</t>
+  </si>
+  <si>
+    <t>https://tradfem.wordpress.com</t>
+  </si>
+  <si>
+    <t>Vigi-gender</t>
+  </si>
+  <si>
+    <t>http://www.vigi-gender.fr/</t>
+  </si>
+  <si>
+    <t>Protection de l'enfance, gender critical</t>
+  </si>
+  <si>
+    <t>Le site est vieux : compliqué de savoir ce qui parle de trans</t>
+  </si>
+  <si>
+    <t>Une seule page vraiment à récupérer : http://www.vigi-gender.fr/labcd-du-gender</t>
+  </si>
+  <si>
+    <t>Syndicat de la Famille</t>
+  </si>
+  <si>
+    <t>https://www.lesyndicatdelafamille.fr</t>
+  </si>
+  <si>
+    <t>Traditionnalisme</t>
+  </si>
+  <si>
+    <t>CathoBel</t>
+  </si>
+  <si>
+    <t>https://www.cathobel.be/</t>
+  </si>
+  <si>
+    <t>Catholicisme</t>
+  </si>
+  <si>
+    <t>Christine Le Doaré</t>
+  </si>
+  <si>
+    <t>https://christineld75.wordpress.com/</t>
+  </si>
+  <si>
+    <t>Genethique</t>
+  </si>
+  <si>
+    <t>https://www.genethique.org/</t>
+  </si>
+  <si>
+    <t>Bio-éthique</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
     <t>trop complexe</t>
   </si>
   <si>
-    <t>Femelliste</t>
-  </si>
-  <si>
-    <t>https://www.femelliste.com/</t>
-  </si>
-  <si>
-    <t>TERF</t>
-  </si>
-  <si>
-    <t>fait</t>
-  </si>
-  <si>
-    <t>TRADFEM</t>
-  </si>
-  <si>
-    <t>https://tradfem.wordpress.com</t>
-  </si>
-  <si>
-    <t>fait (mais trop long)</t>
-  </si>
-  <si>
-    <t>Vigi-gender</t>
-  </si>
-  <si>
-    <t>http://www.vigi-gender.fr/</t>
-  </si>
-  <si>
-    <t>Protection de l'enfance, gender critical</t>
-  </si>
-  <si>
-    <t>Le site est vieux : compliqué de savoir ce qui parle de trans</t>
-  </si>
-  <si>
-    <t>Une seule page vraiment à récupérer : http://www.vigi-gender.fr/labcd-du-gender</t>
-  </si>
-  <si>
-    <t>Syndicat de la Famille</t>
-  </si>
-  <si>
-    <t>https://www.lesyndicatdelafamille.fr</t>
-  </si>
-  <si>
-    <t>Traditionnalisme</t>
-  </si>
-  <si>
-    <t>CathoBel</t>
-  </si>
-  <si>
-    <t>https://www.cathobel.be/</t>
-  </si>
-  <si>
-    <t>Catholicisme</t>
-  </si>
-  <si>
-    <t>Note : ce site regroupe pas mal d'actu catho belge mais je me suis rertouvé à voir aussi des trucs pro LGBT</t>
-  </si>
-  <si>
-    <t>Christine Le Doaré</t>
-  </si>
-  <si>
-    <t>https://christineld75.wordpress.com/</t>
-  </si>
-  <si>
-    <t>Genethique</t>
-  </si>
-  <si>
-    <t>https://www.genethique.org/</t>
-  </si>
-  <si>
-    <t>Bio-éthique</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
     <t>Nicole Roelens</t>
   </si>
   <si>
@@ -6880,9 +6868,6 @@
     <t>Sciences, gender critical</t>
   </si>
   <si>
-    <t>Note : Pleins de sites sont référencés dedans qui pourraient nous servir</t>
-  </si>
-  <si>
     <t>Résistance Lesbienne</t>
   </si>
   <si>
@@ -6896,9 +6881,6 @@
   </si>
   <si>
     <t>Sciences, protection de l'enfance, gender critical</t>
-  </si>
-  <si>
-    <t>A récup juste pdf</t>
   </si>
   <si>
     <t>Observatoire de la Petite Sirène</t>
@@ -6972,7 +6954,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6996,6 +6978,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -7059,7 +7047,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -7076,7 +7064,7 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -7091,7 +7079,7 @@
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -7103,19 +7091,25 @@
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -7456,7 +7450,9 @@
       <c r="F1" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="G1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>400</v>
+      </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
@@ -7465,18 +7461,20 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="F2" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>405</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -7486,18 +7484,20 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C3" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -7507,43 +7507,47 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C4" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>405</v>
+      </c>
       <c r="G4" s="18" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="H4" s="6"/>
-      <c r="I4" s="18"/>
+      <c r="I4" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C5" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="G5" s="20" t="s">
         <v>413</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
-        <v>415</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="2"/>
@@ -7552,20 +7556,20 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>416</v>
-      </c>
-      <c r="C6" s="19" t="s">
+      <c r="B6" s="19" t="s">
         <v>417</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="C6" s="21" t="s">
         <v>418</v>
       </c>
-      <c r="E6" s="18" t="s">
-        <v>407</v>
+      <c r="D6" s="19" t="s">
+        <v>419</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>409</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>420</v>
@@ -7584,14 +7588,16 @@
         <v>422</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
-        <v>423</v>
+        <v>409</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>413</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="2"/>
@@ -7601,20 +7607,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>424</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>425</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
-        <v>426</v>
+        <v>409</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>413</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="2"/>
@@ -7624,20 +7632,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>429</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
-        <v>430</v>
+        <v>409</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>413</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="2"/>
@@ -7647,18 +7657,20 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="F10" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>405</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -7668,18 +7680,20 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="F11" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -7688,20 +7702,20 @@
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="D12" s="19" t="s">
         <v>437</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="E12" s="19" t="s">
         <v>438</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>439</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>440</v>
-      </c>
       <c r="F12" s="2" t="s">
-        <v>441</v>
+        <v>405</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="2"/>
@@ -7711,22 +7725,24 @@
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="19" t="s">
+        <v>439</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>440</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>441</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>433</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>444</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>436</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
@@ -7734,20 +7750,20 @@
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>446</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>447</v>
-      </c>
-      <c r="D14" s="18" t="s">
+      <c r="B14" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>444</v>
       </c>
-      <c r="E14" s="18" t="s">
-        <v>436</v>
+      <c r="D14" s="19" t="s">
+        <v>441</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>433</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="2"/>
@@ -7758,43 +7774,49 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>413</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>450</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="I15" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="F16" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>405</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -7804,20 +7826,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2" t="s">
-        <v>460</v>
+        <v>404</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>413</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="2"/>
@@ -7826,22 +7850,24 @@
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="18" t="s">
-        <v>461</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>462</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>444</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>436</v>
+      <c r="B18" s="19" t="s">
+        <v>456</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>457</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>441</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>433</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="G18" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>442</v>
+      </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
@@ -7849,22 +7875,24 @@
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="18" t="s">
-        <v>463</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>464</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>465</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>466</v>
+      <c r="B19" s="19" t="s">
+        <v>458</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>459</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>460</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>461</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="G19" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>462</v>
+      </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
@@ -7873,18 +7901,20 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="F20" s="2"/>
+        <v>433</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>405</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -7893,23 +7923,23 @@
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="18" t="s">
-        <v>469</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>470</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>471</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>436</v>
+      <c r="B21" s="19" t="s">
+        <v>465</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>466</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>467</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>433</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>472</v>
+        <v>442</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="2"/>
@@ -7918,20 +7948,20 @@
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="18" t="s">
-        <v>473</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>474</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>444</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>436</v>
+      <c r="B22" s="19" t="s">
+        <v>468</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>469</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>441</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>433</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="2"/>
@@ -7942,20 +7972,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2" t="s">
-        <v>478</v>
+        <v>438</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>413</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="2"/>
@@ -7964,22 +7996,24 @@
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="18" t="s">
-        <v>479</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>480</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>477</v>
+      <c r="B24" s="19" t="s">
+        <v>473</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>474</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>472</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="G24" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>442</v>
+      </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
@@ -7988,18 +8022,20 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="F25" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>405</v>
+      </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -8009,18 +8045,20 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="F26" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>405</v>
+      </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -8030,18 +8068,20 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="F27" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>405</v>
+      </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -8051,18 +8091,20 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="F28" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>405</v>
+      </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -8072,18 +8114,20 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="F29" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>405</v>
+      </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -8093,18 +8137,20 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="F30" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>405</v>
+      </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -8113,19 +8159,21 @@
       <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="18" t="s">
-        <v>496</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>497</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>414</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>407</v>
-      </c>
-      <c r="F31" s="2"/>
+      <c r="B31" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>491</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>409</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>405</v>
+      </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -8134,19 +8182,21 @@
       <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="18" t="s">
-        <v>498</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>499</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>406</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>403</v>
-      </c>
-      <c r="F32" s="2"/>
+      <c r="B32" s="19" t="s">
+        <v>492</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>493</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>408</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>404</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>405</v>
+      </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>

--- a/data/Base de données anti trans.xlsx
+++ b/data/Base de données anti trans.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="493">
   <si>
     <t>ID ASSO</t>
   </si>
@@ -6703,9 +6703,6 @@
     <t>Nationaliste, Identitaire</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>ISSEP</t>
   </si>
   <si>
@@ -6954,7 +6951,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6972,12 +6969,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000ff"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -7047,7 +7038,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -7079,7 +7070,7 @@
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -7091,25 +7082,19 @@
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -7521,24 +7506,22 @@
       <c r="F4" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="G4" s="18" t="s">
-        <v>413</v>
-      </c>
+      <c r="G4" s="18"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="19"/>
+      <c r="I4" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>414</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="D5" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>409</v>
@@ -7546,9 +7529,7 @@
       <c r="F5" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="G5" s="20" t="s">
-        <v>413</v>
-      </c>
+      <c r="G5" s="2"/>
       <c r="H5" s="6"/>
       <c r="I5" s="2"/>
     </row>
@@ -7556,23 +7537,23 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
+        <v>416</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>417</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="D6" s="18" t="s">
         <v>418</v>
       </c>
-      <c r="D6" s="19" t="s">
-        <v>419</v>
-      </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="18" t="s">
         <v>409</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>405</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="2"/>
@@ -7582,10 +7563,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>421</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>422</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>403</v>
@@ -7596,9 +7577,7 @@
       <c r="F7" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="G7" s="20" t="s">
-        <v>413</v>
-      </c>
+      <c r="G7" s="2"/>
       <c r="H7" s="6"/>
       <c r="I7" s="2"/>
     </row>
@@ -7607,13 +7586,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>424</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>409</v>
@@ -7621,9 +7600,7 @@
       <c r="F8" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="G8" s="20" t="s">
-        <v>413</v>
-      </c>
+      <c r="G8" s="2"/>
       <c r="H8" s="6"/>
       <c r="I8" s="2"/>
     </row>
@@ -7632,13 +7609,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="D9" s="2" t="s">
         <v>426</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>427</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>409</v>
@@ -7646,9 +7623,7 @@
       <c r="F9" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="G9" s="20" t="s">
-        <v>413</v>
-      </c>
+      <c r="G9" s="2"/>
       <c r="H9" s="6"/>
       <c r="I9" s="2"/>
     </row>
@@ -7657,10 +7632,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>428</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>429</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>403</v>
@@ -7680,19 +7655,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>430</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="D11" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>434</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -7702,17 +7677,17 @@
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
+        <v>434</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>435</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="D12" s="18" t="s">
         <v>436</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="E12" s="18" t="s">
         <v>437</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>438</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>405</v>
@@ -7725,23 +7700,23 @@
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="18" t="s">
+        <v>438</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>439</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="D13" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="E13" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>441</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>433</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>442</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -7750,20 +7725,20 @@
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
+        <v>442</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>443</v>
       </c>
-      <c r="C14" s="21" t="s">
-        <v>444</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>441</v>
-      </c>
-      <c r="E14" s="19" t="s">
+      <c r="D14" s="18" t="s">
+        <v>440</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>434</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="2"/>
@@ -7774,28 +7749,26 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>445</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="D15" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>413</v>
-      </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>449</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
@@ -7803,13 +7776,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>450</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="D16" s="2" t="s">
         <v>451</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>452</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>404</v>
@@ -7826,13 +7799,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>453</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="D17" s="2" t="s">
         <v>454</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>455</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>404</v>
@@ -7840,9 +7813,7 @@
       <c r="F17" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="G17" s="20" t="s">
-        <v>413</v>
-      </c>
+      <c r="G17" s="2"/>
       <c r="H17" s="6"/>
       <c r="I17" s="2"/>
     </row>
@@ -7850,23 +7821,23 @@
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="18" t="s">
+        <v>455</v>
+      </c>
+      <c r="C18" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="C18" s="21" t="s">
-        <v>457</v>
-      </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="18" t="s">
+        <v>440</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>441</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>433</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>442</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -7875,23 +7846,23 @@
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="18" t="s">
+        <v>457</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>458</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="D19" s="18" t="s">
         <v>459</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="E19" s="18" t="s">
         <v>460</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="F19" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>461</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>462</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -7901,19 +7872,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>463</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>464</v>
-      </c>
       <c r="D20" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>405</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -7923,23 +7894,23 @@
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="18" t="s">
+        <v>464</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="D21" s="18" t="s">
         <v>466</v>
       </c>
-      <c r="D21" s="19" t="s">
-        <v>467</v>
-      </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>434</v>
-      </c>
       <c r="G21" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="2"/>
@@ -7948,20 +7919,20 @@
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="18" t="s">
+        <v>467</v>
+      </c>
+      <c r="C22" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="C22" s="21" t="s">
-        <v>469</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>441</v>
-      </c>
-      <c r="E22" s="19" t="s">
+      <c r="D22" s="18" t="s">
+        <v>440</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>434</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="2"/>
@@ -7972,23 +7943,21 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C23" s="15" t="s">
         <v>470</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="D23" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>472</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>413</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="G23" s="2"/>
       <c r="H23" s="6"/>
       <c r="I23" s="2"/>
     </row>
@@ -7996,23 +7965,23 @@
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="18" t="s">
+        <v>472</v>
+      </c>
+      <c r="C24" s="19" t="s">
         <v>473</v>
       </c>
-      <c r="C24" s="21" t="s">
-        <v>474</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>472</v>
+      <c r="D24" s="18" t="s">
+        <v>471</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -8022,13 +7991,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C25" s="15" t="s">
         <v>475</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>476</v>
-      </c>
       <c r="D25" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>409</v>
@@ -8045,13 +8014,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C26" s="15" t="s">
         <v>477</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="D26" s="2" t="s">
         <v>478</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>479</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>409</v>
@@ -8068,13 +8037,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C27" s="15" t="s">
         <v>480</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="D27" s="2" t="s">
         <v>481</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>482</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>409</v>
@@ -8091,13 +8060,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C28" s="15" t="s">
         <v>483</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>484</v>
-      </c>
       <c r="D28" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>409</v>
@@ -8114,13 +8083,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C29" s="15" t="s">
         <v>485</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>486</v>
-      </c>
       <c r="D29" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>409</v>
@@ -8137,13 +8106,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C30" s="15" t="s">
         <v>487</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="D30" s="2" t="s">
         <v>488</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>489</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>409</v>
@@ -8159,16 +8128,16 @@
       <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="18" t="s">
+        <v>489</v>
+      </c>
+      <c r="C31" s="19" t="s">
         <v>490</v>
       </c>
-      <c r="C31" s="21" t="s">
-        <v>491</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>416</v>
-      </c>
-      <c r="E31" s="19" t="s">
+      <c r="D31" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="E31" s="18" t="s">
         <v>409</v>
       </c>
       <c r="F31" s="2" t="s">
@@ -8182,16 +8151,16 @@
       <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="18" t="s">
+        <v>491</v>
+      </c>
+      <c r="C32" s="19" t="s">
         <v>492</v>
       </c>
-      <c r="C32" s="21" t="s">
-        <v>493</v>
-      </c>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="18" t="s">
         <v>408</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="18" t="s">
         <v>404</v>
       </c>
       <c r="F32" s="2" t="s">
